--- a/data/trans_orig/P79A7_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P79A7_2023-Provincia-trans_orig.xlsx
@@ -1357,16 +1357,16 @@
         <v>10147</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6077</v>
+        <v>5152</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>13226</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7672033953803613</v>
+        <v>0.7672033953803614</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4594948975662281</v>
+        <v>0.3895267782381822</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>1</v>
@@ -1391,7 +1391,7 @@
         <v>17477</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11845</v>
+        <v>12137</v>
       </c>
       <c r="T16" s="5" t="n">
         <v>20556</v>
@@ -1400,7 +1400,7 @@
         <v>0.8502132202083884</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5762388957829572</v>
+        <v>0.5904142209495989</v>
       </c>
       <c r="W16" s="6" t="n">
         <v>1</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7149</v>
+        <v>8074</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2327966046196386</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5405051024337717</v>
+        <v>0.6104732217618178</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8711</v>
+        <v>8419</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1497867797916115</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4237611042170446</v>
+        <v>0.4095857790504011</v>
       </c>
     </row>
     <row r="18">
